--- a/SWAWR.xlsx
+++ b/SWAWR.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="44">
   <si>
     <t/>
   </si>
@@ -85,19 +85,46 @@
     <t>CHOMP MLOW BURGER 50</t>
   </si>
   <si>
+    <t>20101460</t>
+  </si>
+  <si>
+    <t>CHOMP ICE.CRM STR 50</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>20069650</t>
+  </si>
+  <si>
+    <t>CHOMP ICE.CRM BLU 50</t>
+  </si>
+  <si>
+    <t>20096157</t>
+  </si>
+  <si>
+    <t>CHOMP MLLOW STRW 50</t>
+  </si>
+  <si>
     <t>20078838</t>
   </si>
   <si>
     <t>CHOMP GOLD.COIN 6'S</t>
   </si>
   <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>20101460</t>
-  </si>
-  <si>
-    <t>CHOMP ICE.CRM STR 50</t>
+    <t>20064556</t>
+  </si>
+  <si>
+    <t>CHOMP2 TWISTER 50G</t>
+  </si>
+  <si>
+    <t>20137587</t>
+  </si>
+  <si>
+    <t>CHOMP2 MALLOWPOP 16G</t>
+  </si>
+  <si>
+    <t>6</t>
   </si>
   <si>
     <t>20133216</t>
@@ -106,16 +133,7 @@
     <t>CHOMP TRIO PLAIN 21G</t>
   </si>
   <si>
-    <t>20064556</t>
-  </si>
-  <si>
-    <t>CHOMP2 TWISTER 50G</t>
-  </si>
-  <si>
-    <t>20069650</t>
-  </si>
-  <si>
-    <t>CHOMP ICE.CRM BLU 50</t>
+    <t>7</t>
   </si>
   <si>
     <t>20133246</t>
@@ -124,16 +142,7 @@
     <t>CHOMP TRIO RNBOW 21G</t>
   </si>
   <si>
-    <t>20096157</t>
-  </si>
-  <si>
-    <t>CHOMP MLLOW STRW 50</t>
-  </si>
-  <si>
-    <t>20137587</t>
-  </si>
-  <si>
-    <t>CHOMP2 MALLOWPOP 16G</t>
+    <t>8</t>
   </si>
 </sst>
 </file>
@@ -733,7 +742,7 @@
         <v>4</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.25">
@@ -750,10 +759,10 @@
         <v>26</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.25">
@@ -770,7 +779,7 @@
         <v>26</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>5</v>
@@ -790,10 +799,10 @@
         <v>26</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="F13" s="1" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -810,10 +819,10 @@
         <v>26</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>18</v>
+        <v>5</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.25">
@@ -830,7 +839,7 @@
         <v>26</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>8</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>5</v>
@@ -838,10 +847,10 @@
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>3</v>
@@ -850,7 +859,7 @@
         <v>26</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="F16" s="1" t="s">
         <v>5</v>
@@ -858,10 +867,10 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>3</v>
@@ -870,7 +879,7 @@
         <v>26</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>13</v>
+        <v>43</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>5</v>
